--- a/SES32_MSM/src/main/webapp/resources/file/upload sample.xlsx
+++ b/SES32_MSM/src/main/webapp/resources/file/upload sample.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13995" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="16140" windowHeight="3480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -62,6 +63,40 @@
   <si>
     <r>
       <t xml:space="preserve">소속
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>반드시 입력</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이름
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>반드시 입력</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">액수
 </t>
     </r>
     <r>
@@ -100,40 +135,6 @@
       <t xml:space="preserve">
 입력형식 : yyyy-mm-dd 경조사명
 반드시 입력</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">이름
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>반드시 입력</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">액수
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>반드시 입력</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -560,7 +561,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -573,13 +574,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>13</v>
@@ -720,6 +721,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
